--- a/pearson_tables/tp_netherlands_cumul-3-5.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-5.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6082444245446524</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6083852403343191</v>
+        <v>0.6991335714602763</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6965780763128264</v>
+        <v>-0.6603745939670799</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.604753953809558</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6756236907141521</v>
+        <v>-0.705019703291507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6243703862554358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6110714526387839</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5246189522926118</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4820677856895809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -504,11 +504,15 @@
           <t>NAO_N</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.661413366356906</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -517,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6406600249385387</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6092626208220516</v>
+        <v>0.6572417816091791</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5545062476950152</v>
+        <v>0.6826283691336831</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5542086800917553</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6355025173684009</v>
+        <v>0.7226289950483106</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6161915443047378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -549,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.681019341618933</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.579718175717003</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6032876636522049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -565,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6254247683248925</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5430894122380205</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5439929696669321</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
